--- a/item_database.xlsx
+++ b/item_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChanW\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59EEFA7-FE23-4134-9100-8C21AC83DD0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98745A93-1122-4FB1-9813-3B89C3027F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{80905091-DBBD-4B64-B436-85FC17A4156F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="258">
   <si>
     <t>Tier Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1022,6 +1022,38 @@
     <t xml:space="preserve"> 상체 체력 + 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>공격시 적은 도트데미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 데미지 입히면 출혈 / 조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑기사의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑도적의 낫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.3(15.3+15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 해당 공격대상에게 검은색 파티클 &amp; 시듦4 4초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑전사의 도끼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은색 파티클 이펙트 / 공격시 효과 없음. / 백금 도끼 효과 + 치유 2레벨 / 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1527,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,6 +1869,21 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,13 +1917,13 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,6 +1933,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,19 +1986,25 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,28 +2016,7 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2486,986 +2533,986 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="104"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3500,14 +3547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
@@ -3535,14 +3582,14 @@
       <c r="AE1" s="27"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="53"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -3623,18 +3670,18 @@
       <c r="AE3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="50"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -3956,18 +4003,18 @@
       <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="49"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
@@ -3991,16 +4038,16 @@
       <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
@@ -6070,10 +6117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD80793-E0D8-41DE-A7E8-42ED11DBD39F}">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6136,11 +6183,11 @@
       <c r="AC1" s="27"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="132">
+      <c r="B2" s="125"/>
+      <c r="C2" s="119">
         <v>1</v>
       </c>
       <c r="D2" s="65" t="s">
@@ -6179,9 +6226,9 @@
       <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="134"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="65" t="s">
         <v>114</v>
       </c>
@@ -6218,9 +6265,9 @@
       <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="132">
+      <c r="A4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="119">
         <v>2</v>
       </c>
       <c r="D4" s="65" t="s">
@@ -6259,9 +6306,9 @@
       <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="65" t="s">
         <v>116</v>
       </c>
@@ -6298,8 +6345,8 @@
       <c r="AC5" s="27"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="98">
         <v>2.5</v>
       </c>
@@ -6339,8 +6386,8 @@
       <c r="AC6" s="27"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="135"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="98">
         <v>2.5</v>
       </c>
@@ -6380,8 +6427,8 @@
       <c r="AC7" s="27"/>
     </row>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="98">
         <v>2.5</v>
       </c>
@@ -6421,8 +6468,8 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="98">
         <v>2.5</v>
       </c>
@@ -6462,9 +6509,9 @@
       <c r="AC9" s="27"/>
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="132">
+      <c r="A10" s="120"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="119">
         <v>3</v>
       </c>
       <c r="D10" s="65" t="s">
@@ -6503,9 +6550,9 @@
       <c r="AC10" s="27"/>
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="134"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="65" t="s">
         <v>235</v>
       </c>
@@ -6542,24 +6589,26 @@
       <c r="AC11" s="27"/>
     </row>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="97">
+      <c r="A12" s="120"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="106">
         <v>3.5</v>
       </c>
-      <c r="D12" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="98">
-        <v>17</v>
-      </c>
-      <c r="F12" s="98">
-        <v>700025</v>
-      </c>
-      <c r="G12" s="98">
-        <v>1.8</v>
-      </c>
-      <c r="H12" s="98"/>
+      <c r="D12" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="107">
+        <v>15</v>
+      </c>
+      <c r="F12" s="107">
+        <v>700061</v>
+      </c>
+      <c r="G12" s="107">
+        <v>1.6</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>251</v>
+      </c>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
@@ -6583,24 +6632,24 @@
       <c r="AC12" s="27"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="65">
-        <v>4</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="65">
-        <v>20</v>
+      <c r="A13" s="120"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="98">
+        <v>17</v>
       </c>
       <c r="F13" s="98">
-        <v>700046</v>
-      </c>
-      <c r="G13" s="65">
-        <v>1.77</v>
-      </c>
-      <c r="H13" s="65"/>
+        <v>700025</v>
+      </c>
+      <c r="G13" s="98">
+        <v>1.8</v>
+      </c>
+      <c r="H13" s="98"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
@@ -6624,24 +6673,24 @@
       <c r="AC13" s="27"/>
     </row>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68" t="s">
-        <v>205</v>
-      </c>
+      <c r="A14" s="121"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="65">
+        <v>4</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="65">
+        <v>20</v>
+      </c>
+      <c r="F14" s="98">
+        <v>700046</v>
+      </c>
+      <c r="G14" s="65">
+        <v>1.77</v>
+      </c>
+      <c r="H14" s="65"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
@@ -6665,19 +6714,23 @@
       <c r="AC14" s="27"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="99"/>
+      <c r="A15" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="68"/>
       <c r="F15" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
@@ -6702,19 +6755,19 @@
       <c r="AC15" s="27"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="118"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
@@ -6739,19 +6792,19 @@
       <c r="AC16" s="27"/>
     </row>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="119"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="68"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="99"/>
       <c r="F17" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68" t="s">
-        <v>185</v>
+        <v>244</v>
+      </c>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99" t="s">
+        <v>211</v>
       </c>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
@@ -6776,27 +6829,19 @@
       <c r="AC17" s="27"/>
     </row>
     <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="66">
-        <v>1</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="66">
-        <v>9</v>
-      </c>
-      <c r="F18" s="91">
-        <v>700001</v>
-      </c>
-      <c r="G18" s="66">
-        <v>0.35</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>202</v>
+      <c r="A18" s="124"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68" t="s">
+        <v>185</v>
       </c>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
@@ -6821,22 +6866,24 @@
       <c r="AC18" s="27"/>
     </row>
     <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="125"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="129"/>
       <c r="C19" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="66">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F19" s="91">
-        <v>700007</v>
+        <v>700001</v>
       </c>
       <c r="G19" s="66">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H19" s="66" t="s">
         <v>202</v>
@@ -6864,22 +6911,22 @@
       <c r="AC19" s="27"/>
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="125"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114">
-        <v>3</v>
+      <c r="A20" s="135"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="66">
+        <v>2</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="66">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F20" s="91">
-        <v>700009</v>
+        <v>700007</v>
       </c>
       <c r="G20" s="66">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H20" s="66" t="s">
         <v>202</v>
@@ -6907,20 +6954,22 @@
       <c r="AC20" s="27"/>
     </row>
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="127">
+        <v>3</v>
+      </c>
       <c r="D21" s="66" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E21" s="66">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="F21" s="91">
-        <v>700029</v>
+        <v>700009</v>
       </c>
       <c r="G21" s="66">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="66" t="s">
         <v>202</v>
@@ -6948,24 +6997,24 @@
       <c r="AC21" s="27"/>
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="125"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="90">
-        <v>3.5</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="91">
-        <v>40</v>
+      <c r="A22" s="135"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="66">
+        <v>29.3</v>
       </c>
       <c r="F22" s="91">
-        <v>700037</v>
-      </c>
-      <c r="G22" s="91">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H22" s="91"/>
+        <v>700029</v>
+      </c>
+      <c r="G22" s="66">
+        <v>0.53</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>202</v>
+      </c>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
@@ -6989,26 +7038,24 @@
       <c r="AC22" s="27"/>
     </row>
     <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="66">
-        <v>4</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="66">
-        <v>45</v>
+      <c r="A23" s="135"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="90">
+        <v>3.5</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="91">
+        <v>40</v>
       </c>
       <c r="F23" s="91">
-        <v>700041</v>
-      </c>
-      <c r="G23" s="66">
-        <v>0.6</v>
-      </c>
-      <c r="H23" s="66" t="s">
-        <v>202</v>
-      </c>
+        <v>700037</v>
+      </c>
+      <c r="G23" s="91">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H23" s="91"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
@@ -7032,27 +7079,25 @@
       <c r="AC23" s="27"/>
     </row>
     <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="123">
-        <v>1</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="69">
-        <v>5.6</v>
-      </c>
-      <c r="F24" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="69">
-        <v>1</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>246</v>
+      <c r="A24" s="128"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="66">
+        <v>4</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="66">
+        <v>45</v>
+      </c>
+      <c r="F24" s="91">
+        <v>700041</v>
+      </c>
+      <c r="G24" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>202</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -7077,14 +7122,18 @@
       <c r="AC24" s="27"/>
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
+      <c r="A25" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="136"/>
+      <c r="C25" s="133">
+        <v>1</v>
+      </c>
       <c r="D25" s="69" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="E25" s="69">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="F25" s="96" t="s">
         <v>241</v>
@@ -7093,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
@@ -7118,25 +7167,23 @@
       <c r="AC25" s="27"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="123">
-        <v>2</v>
-      </c>
+      <c r="A26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="69">
-        <v>11.2</v>
+        <v>7</v>
       </c>
       <c r="F26" s="96" t="s">
         <v>241</v>
       </c>
       <c r="G26" s="69">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
@@ -7161,11 +7208,13 @@
       <c r="AC26" s="27"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="127"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="133">
+        <v>2</v>
+      </c>
       <c r="D27" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="69">
         <v>11.2</v>
@@ -7177,7 +7226,7 @@
         <v>1.03</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
@@ -7202,24 +7251,24 @@
       <c r="AC27" s="27"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="124">
-        <v>3</v>
-      </c>
+      <c r="A28" s="134"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="69" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E28" s="69">
-        <v>16.8</v>
-      </c>
-      <c r="F28" s="96">
-        <v>700008</v>
+        <v>11.2</v>
+      </c>
+      <c r="F28" s="96" t="s">
+        <v>241</v>
       </c>
       <c r="G28" s="69">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H28" s="69"/>
+        <v>1.03</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>248</v>
+      </c>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
@@ -7243,20 +7292,22 @@
       <c r="AC28" s="27"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="134">
+        <v>3</v>
+      </c>
       <c r="D29" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="69">
-        <v>18.2</v>
+        <v>16.8</v>
       </c>
       <c r="F29" s="96">
-        <v>700028</v>
+        <v>700008</v>
       </c>
       <c r="G29" s="69">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29" s="69"/>
       <c r="I29" s="57"/>
@@ -7282,24 +7333,22 @@
       <c r="AC29" s="27"/>
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="124"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="95">
-        <v>3.5</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="96">
-        <v>23.8</v>
+      <c r="A30" s="134"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="69">
+        <v>18.2</v>
       </c>
       <c r="F30" s="96">
-        <v>700018</v>
-      </c>
-      <c r="G30" s="96">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H30" s="96"/>
+        <v>700028</v>
+      </c>
+      <c r="G30" s="69">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H30" s="69"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
@@ -7323,24 +7372,26 @@
       <c r="AC30" s="27"/>
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="94">
-        <v>4</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" s="69">
-        <v>28</v>
+      <c r="A31" s="134"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="96">
+        <v>23.8</v>
       </c>
       <c r="F31" s="96">
-        <v>700040</v>
-      </c>
-      <c r="G31" s="69">
-        <v>1.17</v>
-      </c>
-      <c r="H31" s="69"/>
+        <v>700018</v>
+      </c>
+      <c r="G31" s="96">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H31" s="96" t="s">
+        <v>250</v>
+      </c>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
@@ -7363,27 +7414,27 @@
       <c r="AB31" s="27"/>
       <c r="AC31" s="27"/>
     </row>
-    <row r="32" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="128" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="102">
-        <v>3</v>
-      </c>
-      <c r="D32" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="E32" s="102">
-        <v>18</v>
-      </c>
-      <c r="F32" s="102">
-        <v>700016</v>
-      </c>
-      <c r="G32" s="102">
-        <v>0.9</v>
-      </c>
-      <c r="H32" s="102"/>
+    <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="134"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="105">
+        <v>19.8</v>
+      </c>
+      <c r="F32" s="105">
+        <v>700060</v>
+      </c>
+      <c r="G32" s="105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32" s="105" t="s">
+        <v>257</v>
+      </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="K32" s="57"/>
@@ -7406,25 +7457,25 @@
       <c r="AB32" s="27"/>
       <c r="AC32" s="27"/>
     </row>
-    <row r="33" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="129"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="102">
-        <v>3</v>
-      </c>
-      <c r="D33" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="102">
-        <v>19.5</v>
-      </c>
-      <c r="F33" s="102">
-        <v>700032</v>
-      </c>
-      <c r="G33" s="102">
-        <v>0.95</v>
-      </c>
-      <c r="H33" s="102"/>
+    <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="134"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="94">
+        <v>4</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="69">
+        <v>28</v>
+      </c>
+      <c r="F33" s="96">
+        <v>700040</v>
+      </c>
+      <c r="G33" s="69">
+        <v>1.17</v>
+      </c>
+      <c r="H33" s="69"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
@@ -7448,22 +7499,24 @@
       <c r="AC33" s="27"/>
     </row>
     <row r="34" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
-      <c r="B34" s="131"/>
+      <c r="A34" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="141"/>
       <c r="C34" s="102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E34" s="102">
-        <v>25.5</v>
+        <v>18</v>
       </c>
       <c r="F34" s="102">
-        <v>700038</v>
+        <v>700016</v>
       </c>
       <c r="G34" s="102">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H34" s="102"/>
       <c r="I34" s="57"/>
@@ -7489,22 +7542,22 @@
       <c r="AC34" s="27"/>
     </row>
     <row r="35" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
-      <c r="B35" s="131"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E35" s="102">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="F35" s="102">
-        <v>700047</v>
+        <v>700032</v>
       </c>
       <c r="G35" s="102">
-        <v>1.1200000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="H35" s="102"/>
       <c r="I35" s="57"/>
@@ -7529,27 +7582,25 @@
       <c r="AB35" s="27"/>
       <c r="AC35" s="27"/>
     </row>
-    <row r="36" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="120" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="120">
-        <v>3</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" s="73">
-        <v>700013</v>
-      </c>
-      <c r="G36" s="73">
-        <v>1.3</v>
-      </c>
-      <c r="H36" s="73"/>
+    <row r="36" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="102">
+        <v>3.5</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="102">
+        <v>25.5</v>
+      </c>
+      <c r="F36" s="102">
+        <v>700038</v>
+      </c>
+      <c r="G36" s="102">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H36" s="102"/>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
@@ -7572,23 +7623,25 @@
       <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
     </row>
-    <row r="37" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="73">
-        <v>700030</v>
-      </c>
-      <c r="G37" s="73">
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="73"/>
+    <row r="37" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="140"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="102">
+        <v>4</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="102">
+        <v>30</v>
+      </c>
+      <c r="F37" s="102">
+        <v>700047</v>
+      </c>
+      <c r="G37" s="102">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H37" s="102"/>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
@@ -7612,22 +7665,24 @@
       <c r="AC37" s="27"/>
     </row>
     <row r="38" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="121"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="93">
-        <v>3.5</v>
+      <c r="A38" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="130">
+        <v>3</v>
       </c>
       <c r="D38" s="73" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E38" s="73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F38" s="73">
-        <v>700020</v>
+        <v>700013</v>
       </c>
       <c r="G38" s="73">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="H38" s="73"/>
       <c r="I38" s="57"/>
@@ -7653,22 +7708,20 @@
       <c r="AC38" s="27"/>
     </row>
     <row r="39" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="122"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="74"/>
-      <c r="C39" s="73">
-        <v>4</v>
-      </c>
+      <c r="C39" s="132"/>
       <c r="D39" s="73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E39" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F39" s="73">
-        <v>700044</v>
+        <v>700030</v>
       </c>
       <c r="G39" s="73">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="H39" s="73"/>
       <c r="I39" s="57"/>
@@ -7694,18 +7747,24 @@
       <c r="AC39" s="27"/>
     </row>
     <row r="40" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93">
+        <v>3.5</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="73">
+        <v>700020</v>
+      </c>
+      <c r="G40" s="73">
+        <v>1.28</v>
+      </c>
+      <c r="H40" s="73"/>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
@@ -7729,16 +7788,26 @@
       <c r="AC40" s="27"/>
     </row>
     <row r="41" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104">
+        <v>3.5</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="73">
+        <v>700062</v>
+      </c>
+      <c r="G41" s="73">
+        <v>1.3</v>
+      </c>
+      <c r="H41" s="73" t="s">
+        <v>255</v>
+      </c>
       <c r="I41" s="57"/>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
@@ -7762,16 +7831,24 @@
       <c r="AC41" s="27"/>
     </row>
     <row r="42" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="73">
+        <v>4</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="73">
+        <v>700044</v>
+      </c>
+      <c r="G42" s="73">
+        <v>1.31</v>
+      </c>
+      <c r="H42" s="73"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
@@ -7796,12 +7873,14 @@
     </row>
     <row r="43" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
+      <c r="E43" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="F43" s="64"/>
       <c r="G43" s="64"/>
       <c r="H43" s="64"/>
@@ -7829,7 +7908,7 @@
     </row>
     <row r="44" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="71"/>
       <c r="C44" s="64"/>
@@ -7862,9 +7941,9 @@
     </row>
     <row r="45" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="72"/>
+        <v>119</v>
+      </c>
+      <c r="B45" s="71"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
@@ -7894,8 +7973,10 @@
       <c r="AC45" s="27"/>
     </row>
     <row r="46" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="71"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
@@ -7925,8 +8006,10 @@
       <c r="AC46" s="27"/>
     </row>
     <row r="47" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="71"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
@@ -7956,8 +8039,10 @@
       <c r="AC47" s="27"/>
     </row>
     <row r="48" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
+      <c r="A48" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="72"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
@@ -8482,7 +8567,7 @@
       <c r="AB64" s="27"/>
       <c r="AC64" s="27"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -8513,7 +8598,7 @@
       <c r="AB65" s="27"/>
       <c r="AC65" s="27"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
@@ -8544,7 +8629,7 @@
       <c r="AB66" s="27"/>
       <c r="AC66" s="27"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
@@ -9630,14 +9715,14 @@
       <c r="AC101" s="27"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A102" s="63"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
       <c r="I102" s="57"/>
       <c r="J102" s="57"/>
       <c r="K102" s="57"/>
@@ -9661,14 +9746,14 @@
       <c r="AC102" s="27"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A103" s="63"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
       <c r="I103" s="57"/>
       <c r="J103" s="57"/>
       <c r="K103" s="57"/>
@@ -9692,14 +9777,14 @@
       <c r="AC103" s="27"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A104" s="63"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="63"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="64"/>
       <c r="I104" s="57"/>
       <c r="J104" s="57"/>
       <c r="K104" s="57"/>
@@ -13141,21 +13226,27 @@
       <c r="F215" s="63"/>
       <c r="G215" s="63"/>
       <c r="H215" s="63"/>
-      <c r="I215" s="56"/>
-      <c r="J215" s="56"/>
-      <c r="K215" s="56"/>
-      <c r="L215" s="56"/>
-      <c r="M215" s="56"/>
-      <c r="N215" s="56"/>
-      <c r="O215" s="56"/>
-      <c r="P215" s="56"/>
-      <c r="Q215" s="56"/>
-      <c r="R215" s="56"/>
-      <c r="S215" s="56"/>
-      <c r="T215" s="56"/>
-      <c r="U215" s="56"/>
-      <c r="V215" s="56"/>
-      <c r="W215" s="56"/>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57"/>
+      <c r="K215" s="57"/>
+      <c r="L215" s="57"/>
+      <c r="M215" s="57"/>
+      <c r="N215" s="57"/>
+      <c r="O215" s="57"/>
+      <c r="P215" s="57"/>
+      <c r="Q215" s="57"/>
+      <c r="R215" s="57"/>
+      <c r="S215" s="57"/>
+      <c r="T215" s="57"/>
+      <c r="U215" s="57"/>
+      <c r="V215" s="57"/>
+      <c r="W215" s="57"/>
+      <c r="X215" s="27"/>
+      <c r="Y215" s="27"/>
+      <c r="Z215" s="27"/>
+      <c r="AA215" s="27"/>
+      <c r="AB215" s="27"/>
+      <c r="AC215" s="27"/>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216" s="63"/>
@@ -13166,21 +13257,27 @@
       <c r="F216" s="63"/>
       <c r="G216" s="63"/>
       <c r="H216" s="63"/>
-      <c r="I216" s="56"/>
-      <c r="J216" s="56"/>
-      <c r="K216" s="56"/>
-      <c r="L216" s="56"/>
-      <c r="M216" s="56"/>
-      <c r="N216" s="56"/>
-      <c r="O216" s="56"/>
-      <c r="P216" s="56"/>
-      <c r="Q216" s="56"/>
-      <c r="R216" s="56"/>
-      <c r="S216" s="56"/>
-      <c r="T216" s="56"/>
-      <c r="U216" s="56"/>
-      <c r="V216" s="56"/>
-      <c r="W216" s="56"/>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57"/>
+      <c r="K216" s="57"/>
+      <c r="L216" s="57"/>
+      <c r="M216" s="57"/>
+      <c r="N216" s="57"/>
+      <c r="O216" s="57"/>
+      <c r="P216" s="57"/>
+      <c r="Q216" s="57"/>
+      <c r="R216" s="57"/>
+      <c r="S216" s="57"/>
+      <c r="T216" s="57"/>
+      <c r="U216" s="57"/>
+      <c r="V216" s="57"/>
+      <c r="W216" s="57"/>
+      <c r="X216" s="27"/>
+      <c r="Y216" s="27"/>
+      <c r="Z216" s="27"/>
+      <c r="AA216" s="27"/>
+      <c r="AB216" s="27"/>
+      <c r="AC216" s="27"/>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217" s="63"/>
@@ -13191,21 +13288,27 @@
       <c r="F217" s="63"/>
       <c r="G217" s="63"/>
       <c r="H217" s="63"/>
-      <c r="I217" s="56"/>
-      <c r="J217" s="56"/>
-      <c r="K217" s="56"/>
-      <c r="L217" s="56"/>
-      <c r="M217" s="56"/>
-      <c r="N217" s="56"/>
-      <c r="O217" s="56"/>
-      <c r="P217" s="56"/>
-      <c r="Q217" s="56"/>
-      <c r="R217" s="56"/>
-      <c r="S217" s="56"/>
-      <c r="T217" s="56"/>
-      <c r="U217" s="56"/>
-      <c r="V217" s="56"/>
-      <c r="W217" s="56"/>
+      <c r="I217" s="57"/>
+      <c r="J217" s="57"/>
+      <c r="K217" s="57"/>
+      <c r="L217" s="57"/>
+      <c r="M217" s="57"/>
+      <c r="N217" s="57"/>
+      <c r="O217" s="57"/>
+      <c r="P217" s="57"/>
+      <c r="Q217" s="57"/>
+      <c r="R217" s="57"/>
+      <c r="S217" s="57"/>
+      <c r="T217" s="57"/>
+      <c r="U217" s="57"/>
+      <c r="V217" s="57"/>
+      <c r="W217" s="57"/>
+      <c r="X217" s="27"/>
+      <c r="Y217" s="27"/>
+      <c r="Z217" s="27"/>
+      <c r="AA217" s="27"/>
+      <c r="AB217" s="27"/>
+      <c r="AC217" s="27"/>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218" s="63"/>
@@ -13233,33 +13336,108 @@
       <c r="W218" s="56"/>
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A219" s="63"/>
+      <c r="B219" s="63"/>
+      <c r="C219" s="63"/>
       <c r="D219" s="63"/>
+      <c r="E219" s="63"/>
+      <c r="F219" s="63"/>
+      <c r="G219" s="63"/>
+      <c r="H219" s="63"/>
+      <c r="I219" s="56"/>
+      <c r="J219" s="56"/>
+      <c r="K219" s="56"/>
+      <c r="L219" s="56"/>
+      <c r="M219" s="56"/>
+      <c r="N219" s="56"/>
+      <c r="O219" s="56"/>
+      <c r="P219" s="56"/>
+      <c r="Q219" s="56"/>
+      <c r="R219" s="56"/>
+      <c r="S219" s="56"/>
+      <c r="T219" s="56"/>
+      <c r="U219" s="56"/>
+      <c r="V219" s="56"/>
+      <c r="W219" s="56"/>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A220" s="63"/>
+      <c r="B220" s="63"/>
+      <c r="C220" s="63"/>
       <c r="D220" s="63"/>
+      <c r="E220" s="63"/>
+      <c r="F220" s="63"/>
+      <c r="G220" s="63"/>
+      <c r="H220" s="63"/>
+      <c r="I220" s="56"/>
+      <c r="J220" s="56"/>
+      <c r="K220" s="56"/>
+      <c r="L220" s="56"/>
+      <c r="M220" s="56"/>
+      <c r="N220" s="56"/>
+      <c r="O220" s="56"/>
+      <c r="P220" s="56"/>
+      <c r="Q220" s="56"/>
+      <c r="R220" s="56"/>
+      <c r="S220" s="56"/>
+      <c r="T220" s="56"/>
+      <c r="U220" s="56"/>
+      <c r="V220" s="56"/>
+      <c r="W220" s="56"/>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A221" s="63"/>
+      <c r="B221" s="63"/>
+      <c r="C221" s="63"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="63"/>
+      <c r="F221" s="63"/>
+      <c r="G221" s="63"/>
+      <c r="H221" s="63"/>
+      <c r="I221" s="56"/>
+      <c r="J221" s="56"/>
+      <c r="K221" s="56"/>
+      <c r="L221" s="56"/>
+      <c r="M221" s="56"/>
+      <c r="N221" s="56"/>
+      <c r="O221" s="56"/>
+      <c r="P221" s="56"/>
+      <c r="Q221" s="56"/>
+      <c r="R221" s="56"/>
+      <c r="S221" s="56"/>
+      <c r="T221" s="56"/>
+      <c r="U221" s="56"/>
+      <c r="V221" s="56"/>
+      <c r="W221" s="56"/>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D222" s="63"/>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D223" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A2:A14"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13362,13 +13540,13 @@
       <c r="AO1" s="27"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C2" s="149">
         <v>1</v>
       </c>
       <c r="D2" s="75" t="s">
@@ -13386,7 +13564,7 @@
       <c r="J2" s="75"/>
       <c r="K2" s="76"/>
       <c r="L2" s="75"/>
-      <c r="M2" s="146" t="s">
+      <c r="M2" s="142" t="s">
         <v>249</v>
       </c>
       <c r="N2" s="27"/>
@@ -13419,9 +13597,9 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
       <c r="D3" s="75" t="s">
         <v>138</v>
       </c>
@@ -13439,7 +13617,7 @@
       <c r="J3" s="75"/>
       <c r="K3" s="76"/>
       <c r="L3" s="75"/>
-      <c r="M3" s="144"/>
+      <c r="M3" s="143"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -13470,9 +13648,9 @@
       <c r="AO3" s="27"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="75" t="s">
         <v>139</v>
       </c>
@@ -13488,7 +13666,7 @@
       <c r="J4" s="75"/>
       <c r="K4" s="76"/>
       <c r="L4" s="75"/>
-      <c r="M4" s="144"/>
+      <c r="M4" s="143"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -13519,9 +13697,9 @@
       <c r="AO4" s="27"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="75" t="s">
         <v>140</v>
       </c>
@@ -13537,7 +13715,7 @@
       <c r="J5" s="75"/>
       <c r="K5" s="76"/>
       <c r="L5" s="75"/>
-      <c r="M5" s="145"/>
+      <c r="M5" s="144"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -13568,13 +13746,13 @@
       <c r="AO5" s="27"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6" s="146">
         <v>2</v>
       </c>
       <c r="D6" s="77" t="s">
@@ -13594,7 +13772,7 @@
       <c r="J6" s="77"/>
       <c r="K6" s="78"/>
       <c r="L6" s="77"/>
-      <c r="M6" s="146" t="s">
+      <c r="M6" s="142" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="27"/>
@@ -13627,9 +13805,9 @@
       <c r="AO6" s="27"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="141"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="79" t="s">
         <v>138</v>
       </c>
@@ -13647,7 +13825,7 @@
       <c r="J7" s="79"/>
       <c r="K7" s="80"/>
       <c r="L7" s="79"/>
-      <c r="M7" s="144"/>
+      <c r="M7" s="143"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
@@ -13678,9 +13856,9 @@
       <c r="AO7" s="27"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="141"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="77" t="s">
         <v>139</v>
       </c>
@@ -13698,7 +13876,7 @@
       <c r="J8" s="77"/>
       <c r="K8" s="78"/>
       <c r="L8" s="77"/>
-      <c r="M8" s="144"/>
+      <c r="M8" s="143"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
@@ -13729,9 +13907,9 @@
       <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="142"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="79" t="s">
         <v>140</v>
       </c>
@@ -13749,7 +13927,7 @@
       <c r="J9" s="79"/>
       <c r="K9" s="80"/>
       <c r="L9" s="79"/>
-      <c r="M9" s="145"/>
+      <c r="M9" s="144"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
@@ -13780,13 +13958,13 @@
       <c r="AO9" s="27"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C10" s="146">
         <v>3</v>
       </c>
       <c r="D10" s="77" t="s">
@@ -13808,7 +13986,7 @@
       <c r="J10" s="77"/>
       <c r="K10" s="78"/>
       <c r="L10" s="77"/>
-      <c r="M10" s="146" t="s">
+      <c r="M10" s="142" t="s">
         <v>171</v>
       </c>
       <c r="N10" s="27"/>
@@ -13841,9 +14019,9 @@
       <c r="AO10" s="27"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="79" t="s">
         <v>138</v>
       </c>
@@ -13863,7 +14041,7 @@
       <c r="J11" s="79"/>
       <c r="K11" s="80"/>
       <c r="L11" s="79"/>
-      <c r="M11" s="144"/>
+      <c r="M11" s="143"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
@@ -13894,9 +14072,9 @@
       <c r="AO11" s="27"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="77" t="s">
         <v>139</v>
       </c>
@@ -13916,7 +14094,7 @@
       <c r="J12" s="77"/>
       <c r="K12" s="78"/>
       <c r="L12" s="77"/>
-      <c r="M12" s="144"/>
+      <c r="M12" s="143"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -13947,9 +14125,9 @@
       <c r="AO12" s="27"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="142"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="141"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="79" t="s">
         <v>140</v>
       </c>
@@ -13969,7 +14147,7 @@
       <c r="J13" s="79"/>
       <c r="K13" s="80"/>
       <c r="L13" s="79"/>
-      <c r="M13" s="145"/>
+      <c r="M13" s="144"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -14000,13 +14178,13 @@
       <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="141"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="77" t="s">
         <v>137</v>
       </c>
@@ -14028,7 +14206,7 @@
         <v>0.03</v>
       </c>
       <c r="L14" s="77"/>
-      <c r="M14" s="146" t="s">
+      <c r="M14" s="142" t="s">
         <v>170</v>
       </c>
       <c r="N14" s="27"/>
@@ -14061,9 +14239,9 @@
       <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="141"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="79" t="s">
         <v>138</v>
       </c>
@@ -14085,7 +14263,7 @@
         <v>0.03</v>
       </c>
       <c r="L15" s="79"/>
-      <c r="M15" s="144"/>
+      <c r="M15" s="143"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
@@ -14116,9 +14294,9 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="77" t="s">
         <v>139</v>
       </c>
@@ -14140,7 +14318,7 @@
         <v>0.03</v>
       </c>
       <c r="L16" s="77"/>
-      <c r="M16" s="144"/>
+      <c r="M16" s="143"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
@@ -14171,9 +14349,9 @@
       <c r="AO16" s="27"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="79" t="s">
         <v>140</v>
       </c>
@@ -14195,7 +14373,7 @@
         <v>0.03</v>
       </c>
       <c r="L17" s="79"/>
-      <c r="M17" s="145"/>
+      <c r="M17" s="144"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
@@ -14226,16 +14404,16 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="140">
+      <c r="C18" s="146">
         <v>4</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="146" t="s">
         <v>137</v>
       </c>
       <c r="E18" s="88" t="s">
@@ -14258,7 +14436,7 @@
         <v>0.04</v>
       </c>
       <c r="L18" s="77"/>
-      <c r="M18" s="147" t="s">
+      <c r="M18" s="145" t="s">
         <v>169</v>
       </c>
       <c r="N18" s="27"/>
@@ -14291,10 +14469,10 @@
       <c r="AO18" s="27"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A19" s="141"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="87" t="s">
         <v>153</v>
       </c>
@@ -14313,7 +14491,7 @@
       <c r="J19" s="79"/>
       <c r="K19" s="80"/>
       <c r="L19" s="79"/>
-      <c r="M19" s="147"/>
+      <c r="M19" s="145"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -14344,10 +14522,10 @@
       <c r="AO19" s="27"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="140" t="s">
+      <c r="A20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="146" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="88" t="s">
@@ -14370,7 +14548,7 @@
         <v>0.04</v>
       </c>
       <c r="L20" s="77"/>
-      <c r="M20" s="147"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
@@ -14401,10 +14579,10 @@
       <c r="AO20" s="27"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="87" t="s">
         <v>158</v>
       </c>
@@ -14423,7 +14601,7 @@
       <c r="J21" s="79"/>
       <c r="K21" s="80"/>
       <c r="L21" s="79"/>
-      <c r="M21" s="147"/>
+      <c r="M21" s="145"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
@@ -14454,10 +14632,10 @@
       <c r="AO21" s="27"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="140" t="s">
+      <c r="A22" s="147"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="146" t="s">
         <v>139</v>
       </c>
       <c r="E22" s="88" t="s">
@@ -14480,7 +14658,7 @@
         <v>0.04</v>
       </c>
       <c r="L22" s="77"/>
-      <c r="M22" s="144" t="s">
+      <c r="M22" s="143" t="s">
         <v>168</v>
       </c>
       <c r="N22" s="27"/>
@@ -14513,10 +14691,10 @@
       <c r="AO22" s="27"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A23" s="141"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="87" t="s">
         <v>165</v>
       </c>
@@ -14535,7 +14713,7 @@
       <c r="J23" s="79"/>
       <c r="K23" s="80"/>
       <c r="L23" s="79"/>
-      <c r="M23" s="144"/>
+      <c r="M23" s="143"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
@@ -14566,10 +14744,10 @@
       <c r="AO23" s="27"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="140" t="s">
+      <c r="A24" s="147"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="146" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="88" t="s">
@@ -14590,7 +14768,7 @@
         <v>0.04</v>
       </c>
       <c r="L24" s="77"/>
-      <c r="M24" s="144"/>
+      <c r="M24" s="143"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
@@ -14621,10 +14799,10 @@
       <c r="AO24" s="27"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="87" t="s">
         <v>164</v>
       </c>
@@ -14643,7 +14821,7 @@
       <c r="J25" s="79"/>
       <c r="K25" s="80"/>
       <c r="L25" s="79"/>
-      <c r="M25" s="145"/>
+      <c r="M25" s="144"/>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
@@ -20556,19 +20734,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -20580,6 +20745,19 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="M18:M21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20653,11 +20831,11 @@
       <c r="AC1" s="27"/>
     </row>
     <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="132">
+      <c r="B2" s="125"/>
+      <c r="C2" s="119">
         <v>1</v>
       </c>
       <c r="D2" s="98" t="s">
@@ -20694,9 +20872,9 @@
       <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="134"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="98" t="s">
         <v>114</v>
       </c>
@@ -20731,9 +20909,9 @@
       <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="132">
+      <c r="A4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="119">
         <v>2</v>
       </c>
       <c r="D4" s="98" t="s">
@@ -20770,9 +20948,9 @@
       <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="98" t="s">
         <v>116</v>
       </c>
@@ -20807,9 +20985,9 @@
       <c r="AC5" s="27"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="132">
+      <c r="A6" s="120"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="119">
         <v>3</v>
       </c>
       <c r="D6" s="98" t="s">
@@ -20846,9 +21024,9 @@
       <c r="AC6" s="27"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="134"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="98" t="s">
         <v>224</v>
       </c>
@@ -20883,8 +21061,8 @@
       <c r="AC7" s="27"/>
     </row>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="97">
         <v>3.5</v>
       </c>
@@ -20920,8 +21098,8 @@
       <c r="AC8" s="27"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="98">
         <v>4</v>
       </c>
@@ -20959,11 +21137,11 @@
       <c r="AC9" s="27"/>
     </row>
     <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="126"/>
+      <c r="C10" s="122" t="s">
         <v>226</v>
       </c>
       <c r="D10" s="99" t="s">
@@ -20998,9 +21176,9 @@
       <c r="AC10" s="27"/>
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="118"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="99" t="s">
         <v>207</v>
       </c>
@@ -21033,9 +21211,9 @@
       <c r="AC11" s="27"/>
     </row>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="118"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="99" t="s">
         <v>208</v>
       </c>
@@ -21068,9 +21246,9 @@
       <c r="AC12" s="27"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="119"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="99" t="s">
         <v>123</v>
       </c>
@@ -21103,10 +21281,10 @@
       <c r="AC13" s="27"/>
     </row>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="116"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="91">
         <v>1</v>
       </c>
@@ -21146,8 +21324,8 @@
       <c r="AC14" s="27"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="125"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="91">
         <v>2</v>
       </c>
@@ -21187,9 +21365,9 @@
       <c r="AC15" s="27"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="114">
+      <c r="A16" s="135"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="127">
         <v>3</v>
       </c>
       <c r="D16" s="91" t="s">
@@ -21228,9 +21406,9 @@
       <c r="AC16" s="27"/>
     </row>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="91" t="s">
         <v>174</v>
       </c>
@@ -21267,8 +21445,8 @@
       <c r="AC17" s="27"/>
     </row>
     <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="125"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="90">
         <v>3.5</v>
       </c>
@@ -21306,8 +21484,8 @@
       <c r="AC18" s="27"/>
     </row>
     <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="91">
         <v>4</v>
       </c>
@@ -21347,11 +21525,11 @@
       <c r="AC19" s="27"/>
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="123">
+      <c r="B20" s="136"/>
+      <c r="C20" s="133">
         <v>1</v>
       </c>
       <c r="D20" s="96" t="s">
@@ -21388,9 +21566,9 @@
       <c r="AC20" s="27"/>
     </row>
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="124"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="127"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="96" t="s">
         <v>178</v>
       </c>
@@ -21425,9 +21603,9 @@
       <c r="AC21" s="27"/>
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="123">
+      <c r="A22" s="134"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="133">
         <v>2</v>
       </c>
       <c r="D22" s="96" t="s">
@@ -21464,9 +21642,9 @@
       <c r="AC22" s="27"/>
     </row>
     <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="96" t="s">
         <v>180</v>
       </c>
@@ -21501,9 +21679,9 @@
       <c r="AC23" s="27"/>
     </row>
     <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="124"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="124">
+      <c r="A24" s="134"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="134">
         <v>3</v>
       </c>
       <c r="D24" s="96" t="s">
@@ -21540,9 +21718,9 @@
       <c r="AC24" s="27"/>
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="96" t="s">
         <v>189</v>
       </c>
@@ -21577,8 +21755,8 @@
       <c r="AC25" s="27"/>
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="126"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="95">
         <v>3.5</v>
       </c>
@@ -21616,8 +21794,8 @@
       <c r="AC26" s="27"/>
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="94">
         <v>4</v>
       </c>
@@ -21655,10 +21833,10 @@
       <c r="AC27" s="27"/>
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="153" t="s">
         <v>222</v>
       </c>
-      <c r="B28" s="148"/>
+      <c r="B28" s="153"/>
       <c r="C28" s="101">
         <v>3</v>
       </c>
@@ -21696,8 +21874,8 @@
       <c r="AC28" s="27"/>
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="149"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="101">
         <v>3</v>
       </c>
@@ -21735,8 +21913,8 @@
       <c r="AC29" s="27"/>
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="149"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="101">
         <v>3.5</v>
       </c>
@@ -21774,8 +21952,8 @@
       <c r="AC30" s="27"/>
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="150"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="101">
         <v>4</v>
       </c>
@@ -21813,11 +21991,11 @@
       <c r="AC31" s="27"/>
     </row>
     <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="130" t="s">
         <v>223</v>
       </c>
       <c r="B32" s="92"/>
-      <c r="C32" s="120">
+      <c r="C32" s="130">
         <v>3</v>
       </c>
       <c r="D32" s="73" t="s">
@@ -21856,9 +22034,9 @@
       <c r="AC32" s="27"/>
     </row>
     <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="121"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="92"/>
-      <c r="C33" s="122"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="73" t="s">
         <v>194</v>
       </c>
@@ -21895,7 +22073,7 @@
       <c r="AC33" s="27"/>
     </row>
     <row r="34" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="121"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93">
         <v>3.5</v>
@@ -21930,7 +22108,7 @@
       <c r="AC34" s="27"/>
     </row>
     <row r="35" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="122"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="92"/>
       <c r="C35" s="73">
         <v>4</v>
@@ -27517,14 +27695,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A32:A35"/>
@@ -27537,6 +27707,14 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27562,15 +27740,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -27909,13 +28087,13 @@
       <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="157" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="12"/>
@@ -27951,9 +28129,9 @@
       <c r="A10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -27987,9 +28165,9 @@
       <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -28023,9 +28201,9 @@
       <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -28059,9 +28237,9 @@
       <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -28095,9 +28273,9 @@
       <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -37470,58 +37648,58 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -37550,15 +37728,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -37573,15 +37751,15 @@
       <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
